--- a/data/refine_all.xlsx
+++ b/data/refine_all.xlsx
@@ -585,10 +585,10 @@
     <t>RDA Europe (Nodes)</t>
   </si>
   <si>
-    <t>Riina Salmivalli</t>
-  </si>
-  <si>
-    <t>riina.salmivalli@csc.fi</t>
+    <t>Irina Kupiainen</t>
+  </si>
+  <si>
+    <t>irina.kupiainen@csc.fi</t>
   </si>
   <si>
     <t>grid.452089.2</t>
@@ -3166,10 +3166,10 @@
       <c r="C31" t="s">
         <v>189</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>191</v>
       </c>
       <c r="J31" t="s">

--- a/data/refine_all.xlsx
+++ b/data/refine_all.xlsx
@@ -2013,7 +2013,7 @@
     <t>Q6269240</t>
   </si>
   <si>
-    <t>Franck Manista</t>
+    <t>Frank Manista</t>
   </si>
   <si>
     <t>frank.manista@jisc.ac.uk</t>
@@ -4902,7 +4902,7 @@
         <v>52.3567326</v>
       </c>
       <c r="O83" s="1">
-        <v>49.524732</v>
+        <v>4.9524732</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -4936,11 +4936,11 @@
       <c r="M84" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="N84" s="1">
-        <v>52.0890599</v>
-      </c>
-      <c r="O84" s="1">
-        <v>51.112714</v>
+      <c r="N84" s="2">
+        <v>52.089151</v>
+      </c>
+      <c r="O84" s="2">
+        <v>5.113453</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -6093,7 +6093,7 @@
       <c r="C121" t="s">
         <v>17</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="1" t="s">
         <v>666</v>
       </c>
       <c r="E121" t="s">
@@ -6206,10 +6206,10 @@
         <v>670</v>
       </c>
       <c r="N124" s="1">
-        <v>51.5237868</v>
+        <v>51.52399</v>
       </c>
       <c r="O124" s="1">
-        <v>-4.23039</v>
+        <v>-0.0423039</v>
       </c>
     </row>
     <row r="125" hidden="1"/>

--- a/data/refine_all.xlsx
+++ b/data/refine_all.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Sheet 1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet 1'!$A$1:$Y$1049</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet 1'!$A$1:$AA$1049</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="695">
   <si>
     <t>Institution ID</t>
   </si>
@@ -42,6 +42,12 @@
     <t>email_tertiary</t>
   </si>
   <si>
+    <t>contact_quaternary</t>
+  </si>
+  <si>
+    <t>email_quaternary</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -753,16 +759,34 @@
     <t>Q317179</t>
   </si>
   <si>
+    <t>Klaus Tochtermann</t>
+  </si>
+  <si>
+    <t>k.tochtermann@zbw.eu</t>
+  </si>
+  <si>
+    <t>Ines Drefs</t>
+  </si>
+  <si>
+    <t>i.drefs@zbw.eu</t>
+  </si>
+  <si>
+    <t>Monika Linne</t>
+  </si>
+  <si>
+    <t>m.linne@zbw.eu</t>
+  </si>
+  <si>
     <t>Anja Busch</t>
   </si>
   <si>
     <t>a.busch@zbw.eu</t>
   </si>
   <si>
-    <t>German National Library of Economics</t>
-  </si>
-  <si>
-    <t>Kiel</t>
+    <t>Leibniz Information Centre for Economics</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
   </si>
   <si>
     <t>grid.434429.c</t>
@@ -1365,10 +1389,10 @@
     <t>lisa.de.leeuw@dans.knaw.nl</t>
   </si>
   <si>
-    <t>grid.450126.4</t>
-  </si>
-  <si>
-    <t>Q49984485</t>
+    <t>grid.10419.3d</t>
+  </si>
+  <si>
+    <t>Q2406409</t>
   </si>
   <si>
     <t>Barend Mons</t>
@@ -1383,43 +1407,52 @@
     <t>luiz.bonino@go-fair.org</t>
   </si>
   <si>
-    <t>Dutch Techcentre for Life Sciences</t>
+    <t>Erik Schultes</t>
+  </si>
+  <si>
+    <t>erik.schultes@go-fair.org</t>
+  </si>
+  <si>
+    <t>Leiden University Medical Center</t>
+  </si>
+  <si>
+    <t>Leiden</t>
+  </si>
+  <si>
+    <t>grid.426550.0</t>
+  </si>
+  <si>
+    <t>Q1954989</t>
+  </si>
+  <si>
+    <t>SURFsara</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>grid.425959.6</t>
+  </si>
+  <si>
+    <t>Q2272849</t>
+  </si>
+  <si>
+    <t>Erwin Bleumink</t>
+  </si>
+  <si>
+    <t>Erwin.Bleumink@SURFnet.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor Jas </t>
+  </si>
+  <si>
+    <t>floor.jas@SURFnet.nl</t>
+  </si>
+  <si>
+    <t>SURFnet</t>
   </si>
   <si>
     <t>Utrecht</t>
-  </si>
-  <si>
-    <t>grid.426550.0</t>
-  </si>
-  <si>
-    <t>Q1954989</t>
-  </si>
-  <si>
-    <t>SURFsara</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>grid.425959.6</t>
-  </si>
-  <si>
-    <t>Q2272849</t>
-  </si>
-  <si>
-    <t>Erwin Bleumink</t>
-  </si>
-  <si>
-    <t>Erwin.Bleumink@SURFnet.nl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor Jas </t>
-  </si>
-  <si>
-    <t>floor.jas@SURFnet.nl</t>
-  </si>
-  <si>
-    <t>SURFnet</t>
   </si>
   <si>
     <t>grid.5510.1</t>
@@ -2148,16 +2181,16 @@
     <col customWidth="1" min="4" max="4" width="23.29"/>
     <col customWidth="1" min="5" max="5" width="32.43"/>
     <col customWidth="1" min="6" max="6" width="17.71"/>
-    <col customWidth="1" min="7" max="7" width="20.29"/>
+    <col customWidth="1" min="7" max="7" width="21.71"/>
     <col customWidth="1" min="8" max="8" width="15.57"/>
     <col customWidth="1" min="9" max="9" width="19.43"/>
-    <col customWidth="1" min="10" max="10" width="25.43"/>
-    <col customWidth="1" min="11" max="11" width="16.43"/>
-    <col customWidth="1" min="12" max="12" width="20.43"/>
-    <col customWidth="1" min="13" max="13" width="13.86"/>
-    <col customWidth="1" min="14" max="14" width="17.57"/>
-    <col customWidth="1" min="15" max="15" width="18.57"/>
-    <col customWidth="1" min="16" max="25" width="8.71"/>
+    <col customWidth="1" min="10" max="12" width="25.43"/>
+    <col customWidth="1" min="13" max="13" width="16.43"/>
+    <col customWidth="1" min="14" max="14" width="20.43"/>
+    <col customWidth="1" min="15" max="15" width="13.86"/>
+    <col customWidth="1" min="16" max="16" width="17.57"/>
+    <col customWidth="1" min="17" max="17" width="18.57"/>
+    <col customWidth="1" min="18" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2188,10 +2221,10 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -2206,743 +2239,767 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
         <v>23</v>
       </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
       <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2">
         <v>48.213056</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>16.359722</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>48.2141547</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>16.3555952</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="1">
         <v>48.2141547</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>16.3555952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
         <v>40</v>
       </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
       <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5">
         <v>51.046764</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>3.727875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6">
+      <c r="P6">
         <v>50.823202</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>4.392588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="1">
+        <v>53</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="1">
         <v>50.4566334</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>4.8700133</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="1">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="1">
         <v>50.8252774</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>4.363305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" t="s">
         <v>63</v>
       </c>
+      <c r="L9" t="s">
+        <v>64</v>
+      </c>
       <c r="M9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9">
         <v>42.698264</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>23.324647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>42.674211</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <v>23.36817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="1">
+        <v>65</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="1">
         <v>42.6931389</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="1">
         <v>23.3234935</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" t="s">
-        <v>63</v>
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12">
+        <v>65</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12">
         <v>42.698264</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>23.324647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" t="s">
         <v>83</v>
       </c>
+      <c r="L13" t="s">
+        <v>84</v>
+      </c>
       <c r="M13" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13">
+        <v>85</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13">
         <v>45.829695</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>15.988489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" t="s">
         <v>85</v>
       </c>
-      <c r="B14" t="s">
+      <c r="N14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" t="s">
         <v>86</v>
       </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14">
+      <c r="P14">
         <v>45.810672</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>15.970097</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15">
+      <c r="M15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15">
         <v>45.810672</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>15.970097</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N16" s="1">
+        <v>85</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="1">
         <v>45.7924358</v>
       </c>
-      <c r="O16" s="1">
+      <c r="Q16" s="1">
         <v>15.9672191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" t="s">
         <v>106</v>
       </c>
+      <c r="L17" t="s">
+        <v>107</v>
+      </c>
       <c r="M17" t="s">
-        <v>107</v>
-      </c>
-      <c r="N17">
+        <v>108</v>
+      </c>
+      <c r="O17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17">
         <v>35.160269</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>33.376975</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="O18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="P18" s="1">
         <v>35.1408087</v>
       </c>
-      <c r="O18" s="1">
+      <c r="Q18" s="1">
         <v>33.3790973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N19" s="1">
+        <v>108</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="1">
         <v>35.164841</v>
       </c>
-      <c r="O19" s="1">
+      <c r="Q19" s="1">
         <v>33.363504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" t="s">
         <v>125</v>
       </c>
+      <c r="L20" t="s">
+        <v>126</v>
+      </c>
       <c r="M20" t="s">
-        <v>126</v>
-      </c>
-      <c r="N20">
+        <v>127</v>
+      </c>
+      <c r="O20" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20">
         <v>49.198611</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>16.605</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" t="s">
-        <v>130</v>
-      </c>
-      <c r="K21" t="s">
-        <v>131</v>
-      </c>
-      <c r="M21" t="s">
-        <v>126</v>
-      </c>
-      <c r="N21">
+      <c r="P21">
         <v>50.1017873</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>14.3885668</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>135</v>
+        <v>28</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N22" s="1">
+        <v>137</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="1">
         <v>49.833686</v>
       </c>
-      <c r="O22" s="1">
+      <c r="Q22" s="1">
         <v>18.1614205</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23" t="s">
-        <v>131</v>
+        <v>141</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="M23" t="s">
-        <v>126</v>
-      </c>
-      <c r="N23">
+        <v>133</v>
+      </c>
+      <c r="O23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23">
         <v>50.1017873</v>
       </c>
-      <c r="O23" s="1">
+      <c r="Q23" s="1">
         <v>14.3885615</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
-      </c>
-      <c r="J24" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" t="s">
         <v>147</v>
       </c>
       <c r="L24" t="s">
@@ -2951,496 +3008,508 @@
       <c r="M24" t="s">
         <v>149</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="s">
+        <v>150</v>
+      </c>
+      <c r="O24" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24">
         <v>55.368611</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>10.428056</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="P25" s="1">
         <v>55.763226</v>
       </c>
-      <c r="O25" s="1">
+      <c r="Q25" s="1">
         <v>12.492164</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K26" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="M26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N26" s="1">
+        <v>161</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="1">
         <v>55.6379393</v>
       </c>
-      <c r="O26" s="1">
+      <c r="Q26" s="1">
         <v>12.6144647</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G27" t="s">
-        <v>165</v>
-      </c>
-      <c r="J27" t="s">
-        <v>166</v>
-      </c>
-      <c r="K27" t="s">
         <v>167</v>
       </c>
+      <c r="L27" t="s">
+        <v>168</v>
+      </c>
       <c r="M27" t="s">
-        <v>168</v>
-      </c>
-      <c r="N27">
+        <v>169</v>
+      </c>
+      <c r="O27" t="s">
+        <v>170</v>
+      </c>
+      <c r="P27">
         <v>58.381111</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>26.720278</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="O28" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M28" t="s">
-        <v>168</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="P28" s="1">
         <v>58.377524</v>
       </c>
-      <c r="O28" s="1">
+      <c r="Q28" s="1">
         <v>26.7310098</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" t="s">
-        <v>180</v>
-      </c>
-      <c r="K29" t="s">
         <v>181</v>
       </c>
+      <c r="L29" t="s">
+        <v>182</v>
+      </c>
       <c r="M29" t="s">
-        <v>182</v>
-      </c>
-      <c r="N29">
+        <v>183</v>
+      </c>
+      <c r="O29" t="s">
+        <v>184</v>
+      </c>
+      <c r="P29">
         <v>60.172507</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>24.950956</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" t="s">
+        <v>189</v>
+      </c>
+      <c r="M30" t="s">
+        <v>190</v>
+      </c>
+      <c r="O30" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J30" t="s">
-        <v>187</v>
-      </c>
-      <c r="K30" t="s">
-        <v>188</v>
-      </c>
-      <c r="M30" t="s">
-        <v>182</v>
-      </c>
-      <c r="N30">
+      <c r="P30">
         <v>60.178059</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>24.832647</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L31" t="s">
+        <v>189</v>
+      </c>
+      <c r="M31" t="s">
+        <v>190</v>
+      </c>
+      <c r="O31" t="s">
         <v>184</v>
       </c>
-      <c r="C31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J31" t="s">
-        <v>187</v>
-      </c>
-      <c r="K31" t="s">
-        <v>188</v>
-      </c>
-      <c r="M31" t="s">
-        <v>182</v>
-      </c>
-      <c r="N31">
+      <c r="P31">
         <v>60.178059</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>24.832647</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>189</v>
+      </c>
+      <c r="M32" t="s">
+        <v>190</v>
+      </c>
+      <c r="O32" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" t="s">
-        <v>187</v>
-      </c>
-      <c r="K32" t="s">
-        <v>188</v>
-      </c>
-      <c r="M32" t="s">
-        <v>182</v>
-      </c>
-      <c r="N32">
+      <c r="P32">
         <v>60.178059</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>24.832647</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
-      </c>
-      <c r="J33" t="s">
-        <v>196</v>
-      </c>
-      <c r="K33" t="s">
         <v>197</v>
       </c>
+      <c r="L33" t="s">
+        <v>198</v>
+      </c>
       <c r="M33" t="s">
-        <v>198</v>
-      </c>
-      <c r="N33">
+        <v>199</v>
+      </c>
+      <c r="O33" t="s">
+        <v>200</v>
+      </c>
+      <c r="P33">
         <v>48.856713</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>2.35118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" t="s">
+        <v>204</v>
+      </c>
+      <c r="L34" t="s">
+        <v>206</v>
+      </c>
+      <c r="M34" t="s">
         <v>199</v>
       </c>
-      <c r="B34" t="s">
+      <c r="O34" t="s">
         <v>200</v>
       </c>
-      <c r="C34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D34" t="s">
-        <v>201</v>
-      </c>
-      <c r="E34" t="s">
-        <v>202</v>
-      </c>
-      <c r="F34" t="s">
-        <v>203</v>
-      </c>
-      <c r="G34" t="s">
-        <v>202</v>
-      </c>
-      <c r="J34" t="s">
-        <v>204</v>
-      </c>
-      <c r="K34" t="s">
-        <v>197</v>
-      </c>
-      <c r="M34" t="s">
-        <v>198</v>
-      </c>
-      <c r="N34">
+      <c r="P34">
         <v>48.847664</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>2.264034</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" t="s">
-        <v>212</v>
-      </c>
-      <c r="K35" t="s">
-        <v>197</v>
+        <v>213</v>
+      </c>
+      <c r="L35" t="s">
+        <v>214</v>
       </c>
       <c r="M35" t="s">
-        <v>198</v>
-      </c>
-      <c r="N35">
-        <v>48.953966</v>
-      </c>
-      <c r="O35">
-        <v>2.343256</v>
+        <v>199</v>
+      </c>
+      <c r="O35" t="s">
+        <v>200</v>
+      </c>
+      <c r="P35" s="1">
+        <v>48.84735</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2.34872</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K36" t="s">
-        <v>197</v>
+        <v>28</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="M36" t="s">
-        <v>198</v>
-      </c>
-      <c r="N36" s="1">
+        <v>199</v>
+      </c>
+      <c r="O36" t="s">
+        <v>200</v>
+      </c>
+      <c r="P36" s="1">
         <v>48.8458011</v>
       </c>
-      <c r="O36" s="1">
+      <c r="Q36" s="1">
         <v>22.766143</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>197</v>
+        <v>223</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N37" s="1">
+        <v>199</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P37" s="1">
         <v>48.827992</v>
       </c>
-      <c r="O37" s="1">
+      <c r="Q37" s="1">
         <v>23.423016</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="B38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N38" s="1">
+      <c r="P38" s="1">
         <v>48.8477</v>
       </c>
-      <c r="O38" s="1">
+      <c r="Q38" s="1">
         <v>22.64</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E39" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G39" t="s">
-        <v>231</v>
-      </c>
-      <c r="J39" t="s">
-        <v>232</v>
-      </c>
-      <c r="K39" t="s">
         <v>233</v>
       </c>
       <c r="L39" t="s">
@@ -3449,2766 +3518,2864 @@
       <c r="M39" t="s">
         <v>235</v>
       </c>
-      <c r="N39">
+      <c r="N39" t="s">
+        <v>236</v>
+      </c>
+      <c r="O39" t="s">
+        <v>237</v>
+      </c>
+      <c r="P39">
         <v>47.688993</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>9.187006</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" t="s">
+        <v>241</v>
+      </c>
+      <c r="F40" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" t="s">
+        <v>243</v>
+      </c>
+      <c r="L40" t="s">
+        <v>244</v>
+      </c>
+      <c r="M40" t="s">
+        <v>245</v>
+      </c>
+      <c r="O40" t="s">
         <v>237</v>
       </c>
-      <c r="C40" t="s">
-        <v>189</v>
-      </c>
-      <c r="D40" t="s">
-        <v>238</v>
-      </c>
-      <c r="E40" t="s">
-        <v>239</v>
-      </c>
-      <c r="F40" t="s">
-        <v>240</v>
-      </c>
-      <c r="G40" t="s">
-        <v>241</v>
-      </c>
-      <c r="J40" t="s">
-        <v>242</v>
-      </c>
-      <c r="K40" t="s">
-        <v>243</v>
-      </c>
-      <c r="M40" t="s">
-        <v>235</v>
-      </c>
-      <c r="N40">
+      <c r="P40">
         <v>48.262967</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>11.673612</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
-      </c>
-      <c r="E41" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H41" t="s">
+        <v>252</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="J41" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K41" t="s">
-        <v>249</v>
-      </c>
-      <c r="M41" t="s">
-        <v>235</v>
-      </c>
-      <c r="N41">
-        <v>54.3383</v>
-      </c>
-      <c r="O41">
-        <v>10.1561</v>
+        <v>255</v>
+      </c>
+      <c r="L41" t="s">
+        <v>256</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O41" t="s">
+        <v>237</v>
+      </c>
+      <c r="P41" s="1">
+        <v>53.55698</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>9.9926</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>253</v>
+        <v>28</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="N42" s="1">
+        <v>261</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P42" s="1">
         <v>52.5215261</v>
       </c>
-      <c r="O42" s="1">
+      <c r="Q42" s="1">
         <v>13.4101894</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="J43" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>253</v>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="N43" s="1">
+        <v>261</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P43" s="1">
         <v>52.5215261</v>
       </c>
-      <c r="O43" s="1">
+      <c r="Q43" s="1">
         <v>13.4101894</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J44" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P44" s="1">
         <v>52.5215261</v>
       </c>
-      <c r="O44" s="1">
+      <c r="Q44" s="1">
         <v>13.4101894</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E45" t="s">
-        <v>265</v>
-      </c>
-      <c r="J45" t="s">
-        <v>266</v>
-      </c>
-      <c r="K45" t="s">
-        <v>267</v>
+        <v>273</v>
+      </c>
+      <c r="L45" t="s">
+        <v>274</v>
       </c>
       <c r="M45" t="s">
-        <v>268</v>
-      </c>
-      <c r="N45">
+        <v>275</v>
+      </c>
+      <c r="O45" t="s">
+        <v>276</v>
+      </c>
+      <c r="P45">
         <v>38.036503</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <v>23.802516</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E46" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F46" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G46" t="s">
-        <v>265</v>
-      </c>
-      <c r="J46" t="s">
-        <v>266</v>
-      </c>
-      <c r="K46" t="s">
-        <v>267</v>
+        <v>273</v>
+      </c>
+      <c r="L46" t="s">
+        <v>274</v>
       </c>
       <c r="M46" t="s">
-        <v>268</v>
-      </c>
-      <c r="N46">
+        <v>275</v>
+      </c>
+      <c r="O46" t="s">
+        <v>276</v>
+      </c>
+      <c r="P46">
         <v>38.036503</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>23.802516</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B47" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J47" t="s">
-        <v>275</v>
-      </c>
-      <c r="K47" t="s">
+        <v>282</v>
+      </c>
+      <c r="L47" t="s">
+        <v>283</v>
+      </c>
+      <c r="M47" t="s">
+        <v>284</v>
+      </c>
+      <c r="O47" t="s">
         <v>276</v>
       </c>
-      <c r="M47" t="s">
-        <v>268</v>
-      </c>
-      <c r="N47">
+      <c r="P47">
         <v>37.986972</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <v>23.765819</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B48" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48" t="s">
-        <v>275</v>
-      </c>
-      <c r="K48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" t="s">
+        <v>283</v>
+      </c>
+      <c r="M48" t="s">
+        <v>284</v>
+      </c>
+      <c r="O48" t="s">
         <v>276</v>
       </c>
-      <c r="M48" t="s">
-        <v>268</v>
-      </c>
-      <c r="N48">
+      <c r="P48">
         <v>37.986972</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>23.765819</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="J49" t="s">
-        <v>275</v>
-      </c>
-      <c r="K49" t="s">
+        <v>288</v>
+      </c>
+      <c r="L49" t="s">
+        <v>283</v>
+      </c>
+      <c r="M49" t="s">
+        <v>284</v>
+      </c>
+      <c r="O49" t="s">
         <v>276</v>
       </c>
-      <c r="M49" t="s">
-        <v>268</v>
-      </c>
-      <c r="N49">
+      <c r="P49">
         <v>37.986972</v>
       </c>
-      <c r="O49">
+      <c r="Q49">
         <v>23.765819</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E50" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F50" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G50" t="s">
-        <v>286</v>
-      </c>
-      <c r="J50" t="s">
-        <v>287</v>
-      </c>
-      <c r="K50" t="s">
-        <v>288</v>
+        <v>294</v>
+      </c>
+      <c r="L50" t="s">
+        <v>295</v>
       </c>
       <c r="M50" t="s">
-        <v>289</v>
-      </c>
-      <c r="N50">
+        <v>296</v>
+      </c>
+      <c r="O50" t="s">
+        <v>297</v>
+      </c>
+      <c r="P50">
         <v>47.553889</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>21.621389</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="B51" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>292</v>
+        <v>28</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="N51" s="1">
+        <v>300</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="P51" s="1">
         <v>47.5078356</v>
       </c>
-      <c r="O51" s="1">
+      <c r="Q51" s="1">
         <v>19.0337627</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="B52" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>292</v>
+        <v>304</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="N52" s="1">
+        <v>300</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="P52" s="1">
         <v>47.5078356</v>
       </c>
-      <c r="O52" s="1">
+      <c r="Q52" s="1">
         <v>19.0337627</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B53" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E53" t="s">
-        <v>300</v>
-      </c>
-      <c r="J53" t="s">
-        <v>301</v>
-      </c>
-      <c r="K53" t="s">
-        <v>302</v>
+        <v>308</v>
+      </c>
+      <c r="L53" t="s">
+        <v>309</v>
       </c>
       <c r="M53" t="s">
-        <v>303</v>
-      </c>
-      <c r="N53">
+        <v>310</v>
+      </c>
+      <c r="O53" t="s">
+        <v>311</v>
+      </c>
+      <c r="P53">
         <v>64.138333</v>
       </c>
-      <c r="O53">
+      <c r="Q53">
         <v>-21.927222</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E54" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G54" t="s">
-        <v>309</v>
-      </c>
-      <c r="J54" t="s">
-        <v>310</v>
-      </c>
-      <c r="K54" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L54" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M54" t="s">
-        <v>312</v>
-      </c>
-      <c r="N54">
+        <v>319</v>
+      </c>
+      <c r="N54" t="s">
+        <v>319</v>
+      </c>
+      <c r="O54" t="s">
+        <v>320</v>
+      </c>
+      <c r="P54">
         <v>53.3444412449585</v>
       </c>
-      <c r="O54">
+      <c r="Q54">
         <v>-6.25919222831726</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="B55" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D55" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E55" t="s">
-        <v>315</v>
-      </c>
-      <c r="J55" t="s">
-        <v>316</v>
-      </c>
-      <c r="K55" t="s">
-        <v>311</v>
+        <v>323</v>
+      </c>
+      <c r="L55" t="s">
+        <v>324</v>
       </c>
       <c r="M55" t="s">
-        <v>312</v>
-      </c>
-      <c r="N55">
+        <v>319</v>
+      </c>
+      <c r="O55" t="s">
+        <v>320</v>
+      </c>
+      <c r="P55">
         <v>53.3411016</v>
       </c>
-      <c r="O55">
+      <c r="Q55">
         <v>-6.2566708</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="N56" s="1">
+      <c r="O56" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="P56" s="1">
         <v>53.3426</v>
       </c>
-      <c r="O56" s="1">
+      <c r="Q56" s="1">
         <v>-6.239382</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="N57" s="1">
+      <c r="P57" s="1">
         <v>53.3496182</v>
       </c>
-      <c r="O57" s="1">
+      <c r="Q57" s="1">
         <v>-6.2488714</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B58" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E58" t="s">
-        <v>330</v>
-      </c>
-      <c r="J58" t="s">
-        <v>331</v>
-      </c>
-      <c r="K58" t="s">
-        <v>332</v>
+        <v>338</v>
+      </c>
+      <c r="L58" t="s">
+        <v>339</v>
       </c>
       <c r="M58" t="s">
-        <v>333</v>
-      </c>
-      <c r="N58">
+        <v>340</v>
+      </c>
+      <c r="O58" t="s">
+        <v>341</v>
+      </c>
+      <c r="P58">
         <v>32.067778</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>34.8425</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B59" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J59" t="s">
-        <v>338</v>
-      </c>
-      <c r="K59" t="s">
-        <v>339</v>
+        <v>345</v>
+      </c>
+      <c r="L59" t="s">
+        <v>346</v>
       </c>
       <c r="M59" t="s">
-        <v>333</v>
-      </c>
-      <c r="N59">
+        <v>347</v>
+      </c>
+      <c r="O59" t="s">
+        <v>341</v>
+      </c>
+      <c r="P59">
         <v>32.109034</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <v>34.805886</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" t="s">
-        <v>338</v>
-      </c>
-      <c r="K60" t="s">
-        <v>339</v>
+        <v>28</v>
+      </c>
+      <c r="L60" t="s">
+        <v>346</v>
       </c>
       <c r="M60" t="s">
-        <v>333</v>
-      </c>
-      <c r="N60">
+        <v>347</v>
+      </c>
+      <c r="O60" t="s">
+        <v>341</v>
+      </c>
+      <c r="P60">
         <v>32.109034</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>34.805886</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L61" t="s">
+        <v>346</v>
+      </c>
+      <c r="M61" t="s">
+        <v>347</v>
+      </c>
+      <c r="O61" t="s">
         <v>341</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J61" t="s">
-        <v>338</v>
-      </c>
-      <c r="K61" t="s">
-        <v>339</v>
-      </c>
-      <c r="M61" t="s">
-        <v>333</v>
-      </c>
-      <c r="N61">
+      <c r="P61">
         <v>32.109034</v>
       </c>
-      <c r="O61">
+      <c r="Q61">
         <v>34.805886</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B62" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E62" t="s">
-        <v>347</v>
-      </c>
-      <c r="J62" t="s">
-        <v>348</v>
-      </c>
-      <c r="K62" t="s">
-        <v>349</v>
+        <v>355</v>
+      </c>
+      <c r="L62" t="s">
+        <v>356</v>
       </c>
       <c r="M62" t="s">
-        <v>350</v>
-      </c>
-      <c r="N62">
+        <v>357</v>
+      </c>
+      <c r="O62" t="s">
+        <v>358</v>
+      </c>
+      <c r="P62">
         <v>43.718598</v>
       </c>
-      <c r="O62">
+      <c r="Q62">
         <v>10.422271</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B63" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G63" t="s">
-        <v>354</v>
-      </c>
-      <c r="J63" t="s">
-        <v>355</v>
-      </c>
-      <c r="K63" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L63" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M63" t="s">
-        <v>350</v>
-      </c>
-      <c r="N63">
+        <v>364</v>
+      </c>
+      <c r="N63" t="s">
+        <v>365</v>
+      </c>
+      <c r="O63" t="s">
+        <v>358</v>
+      </c>
+      <c r="P63">
         <v>45.066667</v>
       </c>
-      <c r="O63">
+      <c r="Q63">
         <v>7.689019</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" t="s">
+        <v>366</v>
+      </c>
+      <c r="E64" t="s">
+        <v>367</v>
+      </c>
+      <c r="F64" t="s">
+        <v>354</v>
+      </c>
+      <c r="G64" t="s">
+        <v>355</v>
+      </c>
+      <c r="L64" t="s">
+        <v>356</v>
+      </c>
+      <c r="M64" t="s">
+        <v>357</v>
+      </c>
+      <c r="O64" t="s">
         <v>358</v>
       </c>
-      <c r="E64" t="s">
-        <v>359</v>
-      </c>
-      <c r="F64" t="s">
-        <v>346</v>
-      </c>
-      <c r="G64" t="s">
-        <v>347</v>
-      </c>
-      <c r="J64" t="s">
-        <v>348</v>
-      </c>
-      <c r="K64" t="s">
-        <v>349</v>
-      </c>
-      <c r="M64" t="s">
-        <v>350</v>
-      </c>
-      <c r="N64">
+      <c r="P64">
         <v>43.718598</v>
       </c>
-      <c r="O64">
+      <c r="Q64">
         <v>10.422271</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>363</v>
+        <v>28</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="N65" s="1">
+        <v>371</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="P65" s="1">
         <v>44.48638889</v>
       </c>
-      <c r="O65" s="1">
+      <c r="Q65" s="1">
         <v>11.25972222</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="N66" s="1">
+        <v>379</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="P66" s="1">
         <v>41.899733</v>
       </c>
-      <c r="O66" s="1">
+      <c r="Q66" s="1">
         <v>12.51207</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B67" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E67" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F67" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="G67" t="s">
-        <v>377</v>
-      </c>
-      <c r="J67" t="s">
-        <v>378</v>
-      </c>
-      <c r="K67" t="s">
-        <v>379</v>
+        <v>385</v>
+      </c>
+      <c r="L67" t="s">
+        <v>386</v>
       </c>
       <c r="M67" t="s">
-        <v>380</v>
-      </c>
-      <c r="N67">
+        <v>387</v>
+      </c>
+      <c r="O67" t="s">
+        <v>388</v>
+      </c>
+      <c r="P67">
         <v>56.950983</v>
       </c>
-      <c r="O67">
+      <c r="Q67">
         <v>24.116292</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
+      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="N68" s="1">
+        <v>387</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="P68" s="1">
         <v>56.961467</v>
       </c>
-      <c r="O68" s="1">
+      <c r="Q68" s="1">
         <v>24.104029</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B69" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
+        <v>394</v>
+      </c>
+      <c r="E69" t="s">
+        <v>395</v>
+      </c>
+      <c r="L69" t="s">
         <v>386</v>
       </c>
-      <c r="E69" t="s">
+      <c r="M69" t="s">
         <v>387</v>
       </c>
-      <c r="J69" t="s">
-        <v>378</v>
-      </c>
-      <c r="K69" t="s">
-        <v>379</v>
-      </c>
-      <c r="M69" t="s">
-        <v>380</v>
-      </c>
-      <c r="N69">
+      <c r="O69" t="s">
+        <v>388</v>
+      </c>
+      <c r="P69">
         <v>56.950983</v>
       </c>
-      <c r="O69">
+      <c r="Q69">
         <v>24.116292</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B70" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E70" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F70" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G70" t="s">
-        <v>393</v>
-      </c>
-      <c r="J70" t="s">
-        <v>394</v>
-      </c>
-      <c r="K70" t="s">
-        <v>395</v>
+        <v>401</v>
+      </c>
+      <c r="L70" t="s">
+        <v>402</v>
       </c>
       <c r="M70" t="s">
-        <v>396</v>
-      </c>
-      <c r="N70">
+        <v>403</v>
+      </c>
+      <c r="O70" t="s">
+        <v>404</v>
+      </c>
+      <c r="P70">
         <v>54.898611</v>
       </c>
-      <c r="O70">
+      <c r="Q70">
         <v>23.912222</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B71" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="J71" t="s">
-        <v>401</v>
-      </c>
-      <c r="K71" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="L71" t="s">
+        <v>409</v>
       </c>
       <c r="M71" t="s">
-        <v>396</v>
-      </c>
-      <c r="N71">
+        <v>410</v>
+      </c>
+      <c r="O71" t="s">
+        <v>404</v>
+      </c>
+      <c r="P71">
         <v>54.6825</v>
       </c>
-      <c r="O71">
+      <c r="Q71">
         <v>25.287222</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="N72" s="1">
+      <c r="P72" s="1">
         <v>54.9051352</v>
       </c>
-      <c r="O72" s="1">
+      <c r="Q72" s="1">
         <v>23.9548529</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B73" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E73" t="s">
-        <v>410</v>
-      </c>
-      <c r="J73" t="s">
-        <v>411</v>
-      </c>
-      <c r="K73" t="s">
-        <v>412</v>
+        <v>418</v>
+      </c>
+      <c r="L73" t="s">
+        <v>419</v>
       </c>
       <c r="M73" t="s">
-        <v>412</v>
-      </c>
-      <c r="N73">
+        <v>420</v>
+      </c>
+      <c r="O73" t="s">
+        <v>420</v>
+      </c>
+      <c r="P73">
         <v>49.660176</v>
       </c>
-      <c r="O73">
+      <c r="Q73">
         <v>6.134009</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B74" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J74" t="s">
-        <v>411</v>
-      </c>
-      <c r="K74" t="s">
-        <v>412</v>
+        <v>28</v>
+      </c>
+      <c r="L74" t="s">
+        <v>419</v>
       </c>
       <c r="M74" t="s">
-        <v>412</v>
-      </c>
-      <c r="N74">
+        <v>420</v>
+      </c>
+      <c r="O74" t="s">
+        <v>420</v>
+      </c>
+      <c r="P74">
         <v>49.660176</v>
       </c>
-      <c r="O74">
+      <c r="Q74">
         <v>6.134009</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="B75" s="1" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="M75" t="s">
-        <v>412</v>
-      </c>
-      <c r="N75" s="1">
+        <v>425</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="O75" t="s">
+        <v>420</v>
+      </c>
+      <c r="P75" s="1">
         <v>49.5045565</v>
       </c>
-      <c r="O75" s="1">
+      <c r="Q75" s="1">
         <v>5.946235</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="B76" s="1" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="O76" t="s">
         <v>420</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="M76" t="s">
-        <v>412</v>
-      </c>
-      <c r="N76" s="1">
+      <c r="P76" s="1">
         <v>49.5045565</v>
       </c>
-      <c r="O76" s="1">
+      <c r="Q76" s="1">
         <v>5.946235</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B77" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E77" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F77" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G77" t="s">
-        <v>427</v>
-      </c>
-      <c r="J77" t="s">
-        <v>428</v>
-      </c>
-      <c r="K77" t="s">
-        <v>429</v>
+        <v>435</v>
+      </c>
+      <c r="L77" t="s">
+        <v>436</v>
       </c>
       <c r="M77" t="s">
-        <v>430</v>
-      </c>
-      <c r="N77">
+        <v>437</v>
+      </c>
+      <c r="O77" t="s">
+        <v>438</v>
+      </c>
+      <c r="P77">
         <v>35.901944</v>
       </c>
-      <c r="O77">
+      <c r="Q77">
         <v>14.4825</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B78" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="J78" t="s">
-        <v>428</v>
-      </c>
-      <c r="K78" t="s">
-        <v>429</v>
+        <v>442</v>
+      </c>
+      <c r="L78" t="s">
+        <v>436</v>
       </c>
       <c r="M78" t="s">
-        <v>430</v>
-      </c>
-      <c r="N78">
+        <v>437</v>
+      </c>
+      <c r="O78" t="s">
+        <v>438</v>
+      </c>
+      <c r="P78">
         <v>35.901944</v>
       </c>
-      <c r="O78">
+      <c r="Q78">
         <v>14.4825</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="B79" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E79" t="s">
-        <v>437</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="M79" t="s">
-        <v>440</v>
-      </c>
-      <c r="N79" s="1">
+        <v>445</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O79" t="s">
+        <v>448</v>
+      </c>
+      <c r="P79" s="1">
         <v>52.080818</v>
       </c>
-      <c r="O79" s="1">
+      <c r="Q79" s="1">
         <v>4.345586</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B80" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G80" t="s">
-        <v>444</v>
-      </c>
-      <c r="J80" t="s">
-        <v>445</v>
-      </c>
-      <c r="K80" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L80" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M80" t="s">
-        <v>440</v>
-      </c>
-      <c r="N80">
+        <v>454</v>
+      </c>
+      <c r="N80" t="s">
+        <v>455</v>
+      </c>
+      <c r="O80" t="s">
+        <v>448</v>
+      </c>
+      <c r="P80">
         <v>52.002794</v>
       </c>
-      <c r="O80">
+      <c r="Q80">
         <v>4.370898</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="B81" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
+        <v>456</v>
+      </c>
+      <c r="E81" t="s">
+        <v>457</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O81" t="s">
         <v>448</v>
       </c>
-      <c r="E81" t="s">
-        <v>449</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="M81" t="s">
-        <v>440</v>
-      </c>
-      <c r="N81" s="1">
+      <c r="P81" s="1">
         <v>52.080818</v>
       </c>
-      <c r="O81" s="1">
+      <c r="Q81" s="1">
         <v>4.345586</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" t="s">
-        <v>450</v>
+      <c r="A82" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="B82" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D82" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="E82" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F82" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G82" t="s">
-        <v>455</v>
-      </c>
-      <c r="J82" t="s">
-        <v>456</v>
-      </c>
-      <c r="K82" t="s">
-        <v>457</v>
-      </c>
-      <c r="M82" t="s">
-        <v>440</v>
-      </c>
-      <c r="N82">
-        <v>52.089736</v>
-      </c>
-      <c r="O82">
-        <v>5.114174</v>
+        <v>463</v>
+      </c>
+      <c r="H82" t="s">
+        <v>464</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O82" t="s">
+        <v>448</v>
+      </c>
+      <c r="P82" s="1">
+        <v>52.16785</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>4.48005</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>461</v>
+        <v>28</v>
+      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="N83" s="1">
+        <v>471</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="P83" s="1">
         <v>52.3567326</v>
       </c>
-      <c r="O83" s="1">
+      <c r="Q83" s="1">
         <v>4.9524732</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>457</v>
+        <v>477</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="N84" s="2">
+        <v>479</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="P84" s="2">
         <v>52.089151</v>
       </c>
-      <c r="O84" s="2">
+      <c r="Q84" s="2">
         <v>5.113453</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="B85" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="E85" t="s">
-        <v>472</v>
-      </c>
-      <c r="J85" t="s">
-        <v>473</v>
-      </c>
-      <c r="K85" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="L85" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="M85" t="s">
-        <v>475</v>
-      </c>
-      <c r="N85">
+        <v>485</v>
+      </c>
+      <c r="N85" t="s">
+        <v>485</v>
+      </c>
+      <c r="O85" t="s">
+        <v>486</v>
+      </c>
+      <c r="P85">
         <v>59.939572</v>
       </c>
-      <c r="O85">
+      <c r="Q85">
         <v>10.719175</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>479</v>
+        <v>28</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="N86" s="1">
+        <v>490</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="P86" s="1">
         <v>63.415877</v>
       </c>
-      <c r="O86" s="1">
+      <c r="Q86" s="1">
         <v>10.3928118</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="B87" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="E87" t="s">
-        <v>483</v>
-      </c>
-      <c r="J87" t="s">
-        <v>484</v>
-      </c>
-      <c r="K87" t="s">
-        <v>485</v>
+        <v>494</v>
+      </c>
+      <c r="L87" t="s">
+        <v>495</v>
       </c>
       <c r="M87" t="s">
-        <v>486</v>
-      </c>
-      <c r="N87">
+        <v>496</v>
+      </c>
+      <c r="O87" t="s">
+        <v>497</v>
+      </c>
+      <c r="P87">
         <v>52.240278</v>
       </c>
-      <c r="O87">
+      <c r="Q87">
         <v>21.019167</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="B88" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J88" t="s">
-        <v>488</v>
-      </c>
-      <c r="K88" t="s">
-        <v>489</v>
+        <v>28</v>
+      </c>
+      <c r="L88" t="s">
+        <v>499</v>
       </c>
       <c r="M88" t="s">
-        <v>486</v>
-      </c>
-      <c r="N88">
+        <v>500</v>
+      </c>
+      <c r="O88" t="s">
+        <v>497</v>
+      </c>
+      <c r="P88">
         <v>52.4071611</v>
       </c>
-      <c r="O88">
+      <c r="Q88">
         <v>16.9515717</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="B89" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="J89" t="s">
-        <v>488</v>
-      </c>
-      <c r="K89" t="s">
-        <v>489</v>
+        <v>502</v>
+      </c>
+      <c r="L89" t="s">
+        <v>499</v>
       </c>
       <c r="M89" t="s">
-        <v>486</v>
-      </c>
-      <c r="N89">
+        <v>500</v>
+      </c>
+      <c r="O89" t="s">
+        <v>497</v>
+      </c>
+      <c r="P89">
         <v>52.4071611</v>
       </c>
-      <c r="O89">
+      <c r="Q89">
         <v>16.9515717</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="K90" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="O90" t="s">
         <v>497</v>
       </c>
-      <c r="M90" t="s">
-        <v>486</v>
-      </c>
-      <c r="N90" s="1">
+      <c r="P90" s="1">
         <v>51.753055555556</v>
       </c>
-      <c r="O90" s="1">
+      <c r="Q90" s="1">
         <v>19.45</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="B91" s="1" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="J91" t="s">
-        <v>501</v>
-      </c>
-      <c r="K91" t="s">
-        <v>502</v>
+        <v>511</v>
+      </c>
+      <c r="L91" t="s">
+        <v>512</v>
       </c>
       <c r="M91" t="s">
-        <v>486</v>
-      </c>
-      <c r="N91">
+        <v>513</v>
+      </c>
+      <c r="O91" t="s">
+        <v>497</v>
+      </c>
+      <c r="P91">
         <v>50.067161</v>
       </c>
-      <c r="O91">
+      <c r="Q91">
         <v>19.913276</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B92" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="E92" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F92" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="G92" t="s">
-        <v>508</v>
-      </c>
-      <c r="J92" t="s">
-        <v>509</v>
-      </c>
-      <c r="K92" t="s">
-        <v>510</v>
+        <v>519</v>
+      </c>
+      <c r="L92" t="s">
+        <v>520</v>
       </c>
       <c r="M92" t="s">
-        <v>511</v>
-      </c>
-      <c r="N92">
+        <v>521</v>
+      </c>
+      <c r="O92" t="s">
+        <v>522</v>
+      </c>
+      <c r="P92">
         <v>41.452098</v>
       </c>
-      <c r="O92">
+      <c r="Q92">
         <v>-8.291009</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>515</v>
+        <v>28</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="N93" s="1">
+        <v>526</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="P93" s="1">
         <v>40.2074</v>
       </c>
-      <c r="O93" s="1">
+      <c r="Q93" s="1">
         <v>-8.4265</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J94" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="O94" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="N94" s="1">
+      <c r="P94" s="1">
         <v>38.7592074</v>
       </c>
-      <c r="O94" s="1">
+      <c r="Q94" s="1">
         <v>-9.1443667</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>523</v>
+        <v>537</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="N95" s="1">
+        <v>534</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="P95" s="1">
         <v>38.71</v>
       </c>
-      <c r="O95" s="1">
+      <c r="Q95" s="1">
         <v>-9.15333333</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="B96" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="E96" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="F96" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="G96" t="s">
-        <v>533</v>
-      </c>
-      <c r="J96" t="s">
-        <v>534</v>
-      </c>
-      <c r="K96" t="s">
-        <v>535</v>
+        <v>544</v>
+      </c>
+      <c r="L96" t="s">
+        <v>545</v>
       </c>
       <c r="M96" t="s">
-        <v>536</v>
-      </c>
-      <c r="N96">
+        <v>546</v>
+      </c>
+      <c r="O96" t="s">
+        <v>547</v>
+      </c>
+      <c r="P96">
         <v>44.433739</v>
       </c>
-      <c r="O96">
+      <c r="Q96">
         <v>26.089399</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="B97" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="E97" t="s">
-        <v>540</v>
-      </c>
-      <c r="J97" t="s">
-        <v>541</v>
-      </c>
-      <c r="K97" t="s">
-        <v>542</v>
+        <v>551</v>
+      </c>
+      <c r="L97" t="s">
+        <v>552</v>
       </c>
       <c r="M97" t="s">
-        <v>543</v>
-      </c>
-      <c r="N97">
+        <v>553</v>
+      </c>
+      <c r="O97" t="s">
+        <v>554</v>
+      </c>
+      <c r="P97">
         <v>44.818441</v>
       </c>
-      <c r="O97">
+      <c r="Q97">
         <v>20.457422</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="B98" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="J98" t="s">
-        <v>541</v>
-      </c>
-      <c r="K98" t="s">
-        <v>542</v>
+        <v>556</v>
+      </c>
+      <c r="L98" t="s">
+        <v>552</v>
       </c>
       <c r="M98" t="s">
-        <v>543</v>
-      </c>
-      <c r="N98">
+        <v>553</v>
+      </c>
+      <c r="O98" t="s">
+        <v>554</v>
+      </c>
+      <c r="P98">
         <v>44.818441</v>
       </c>
-      <c r="O98">
+      <c r="Q98">
         <v>20.457422</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="B99" s="1" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="K99" t="s">
-        <v>542</v>
+        <v>559</v>
+      </c>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="M99" t="s">
-        <v>543</v>
-      </c>
-      <c r="N99" s="1">
+        <v>553</v>
+      </c>
+      <c r="O99" t="s">
+        <v>554</v>
+      </c>
+      <c r="P99" s="1">
         <v>44.8052876</v>
       </c>
-      <c r="O99" s="1">
+      <c r="Q99" s="1">
         <v>20.4732031</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="B100" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="E100" t="s">
-        <v>553</v>
-      </c>
-      <c r="J100" t="s">
-        <v>554</v>
-      </c>
-      <c r="K100" t="s">
-        <v>555</v>
+        <v>564</v>
+      </c>
+      <c r="L100" t="s">
+        <v>565</v>
       </c>
       <c r="M100" t="s">
-        <v>556</v>
-      </c>
-      <c r="N100">
+        <v>566</v>
+      </c>
+      <c r="O100" t="s">
+        <v>567</v>
+      </c>
+      <c r="P100">
         <v>48.170246</v>
       </c>
-      <c r="O100">
+      <c r="Q100">
         <v>17.074813</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="N101" s="1">
+        <v>566</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="P101" s="1">
         <v>48.154894444444</v>
       </c>
-      <c r="O101" s="1">
+      <c r="Q101" s="1">
         <v>17.105869444444</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>555</v>
+        <v>574</v>
+      </c>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="N102" s="1">
+        <v>566</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="P102" s="1">
         <v>48.15467057</v>
       </c>
-      <c r="O102" s="1">
+      <c r="Q102" s="1">
         <v>17.11743951</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="O103" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="N103" s="1">
+      <c r="P103" s="1">
         <v>48.573</v>
       </c>
-      <c r="O103" s="1">
+      <c r="Q103" s="1">
         <v>19.1165</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="B104" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="J104" t="s">
-        <v>574</v>
-      </c>
-      <c r="K104" t="s">
-        <v>555</v>
+        <v>584</v>
+      </c>
+      <c r="L104" t="s">
+        <v>585</v>
       </c>
       <c r="M104" t="s">
-        <v>556</v>
-      </c>
-      <c r="N104">
+        <v>566</v>
+      </c>
+      <c r="O104" t="s">
+        <v>567</v>
+      </c>
+      <c r="P104">
         <v>48.153998</v>
       </c>
-      <c r="O104">
+      <c r="Q104">
         <v>17.071929</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="B105" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="E105" t="s">
-        <v>578</v>
-      </c>
-      <c r="J105" t="s">
-        <v>579</v>
-      </c>
-      <c r="K105" t="s">
-        <v>580</v>
+        <v>589</v>
+      </c>
+      <c r="L105" t="s">
+        <v>590</v>
       </c>
       <c r="M105" t="s">
-        <v>581</v>
-      </c>
-      <c r="N105">
+        <v>591</v>
+      </c>
+      <c r="O105" t="s">
+        <v>592</v>
+      </c>
+      <c r="P105">
         <v>46.049268</v>
       </c>
-      <c r="O105">
+      <c r="Q105">
         <v>14.505099</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="B106" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J106" t="s">
-        <v>579</v>
-      </c>
-      <c r="K106" t="s">
-        <v>580</v>
+        <v>28</v>
+      </c>
+      <c r="L106" t="s">
+        <v>590</v>
       </c>
       <c r="M106" t="s">
-        <v>581</v>
-      </c>
-      <c r="N106">
+        <v>591</v>
+      </c>
+      <c r="O106" t="s">
+        <v>592</v>
+      </c>
+      <c r="P106">
         <v>46.049268</v>
       </c>
-      <c r="O106">
+      <c r="Q106">
         <v>14.505099</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="K107" t="s">
-        <v>580</v>
+        <v>598</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="M107" t="s">
-        <v>581</v>
-      </c>
-      <c r="N107" s="1">
+        <v>591</v>
+      </c>
+      <c r="O107" t="s">
+        <v>592</v>
+      </c>
+      <c r="P107" s="1">
         <v>46.0501297</v>
       </c>
-      <c r="O107" s="1">
+      <c r="Q107" s="1">
         <v>14.458125</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="B108" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E108" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="F108" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="G108" t="s">
-        <v>594</v>
-      </c>
-      <c r="J108" t="s">
-        <v>595</v>
-      </c>
-      <c r="K108" t="s">
-        <v>596</v>
+        <v>605</v>
+      </c>
+      <c r="L108" t="s">
+        <v>606</v>
       </c>
       <c r="M108" t="s">
-        <v>597</v>
-      </c>
-      <c r="N108">
+        <v>607</v>
+      </c>
+      <c r="O108" t="s">
+        <v>608</v>
+      </c>
+      <c r="P108">
         <v>40.455042</v>
       </c>
-      <c r="O108">
+      <c r="Q108">
         <v>-3.694162</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="B109" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D109" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="E109" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="F109" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="G109" t="s">
-        <v>603</v>
-      </c>
-      <c r="J109" t="s">
-        <v>604</v>
-      </c>
-      <c r="K109" t="s">
-        <v>605</v>
+        <v>614</v>
+      </c>
+      <c r="L109" t="s">
+        <v>615</v>
       </c>
       <c r="M109" t="s">
-        <v>597</v>
-      </c>
-      <c r="N109">
+        <v>616</v>
+      </c>
+      <c r="O109" t="s">
+        <v>608</v>
+      </c>
+      <c r="P109">
         <v>41.389319</v>
       </c>
-      <c r="O109">
+      <c r="Q109">
         <v>2.116325</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="B110" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J110" t="s">
-        <v>604</v>
-      </c>
-      <c r="K110" t="s">
-        <v>605</v>
+        <v>28</v>
+      </c>
+      <c r="L110" t="s">
+        <v>615</v>
       </c>
       <c r="M110" t="s">
-        <v>597</v>
-      </c>
-      <c r="N110">
+        <v>616</v>
+      </c>
+      <c r="O110" t="s">
+        <v>608</v>
+      </c>
+      <c r="P110">
         <v>41.389319</v>
       </c>
-      <c r="O110">
+      <c r="Q110">
         <v>2.116325</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="B111" s="1" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="M111" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="O111" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="N111" s="1">
+      <c r="P111" s="1">
         <v>40.4478261</v>
       </c>
-      <c r="O111" s="1">
+      <c r="Q111" s="1">
         <v>3.696328</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="B112" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="E112" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="F112" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="G112" t="s">
-        <v>615</v>
-      </c>
-      <c r="J112" t="s">
-        <v>616</v>
-      </c>
-      <c r="K112" t="s">
-        <v>617</v>
+        <v>626</v>
+      </c>
+      <c r="L112" t="s">
+        <v>627</v>
       </c>
       <c r="M112" t="s">
-        <v>618</v>
-      </c>
-      <c r="N112">
+        <v>628</v>
+      </c>
+      <c r="O112" t="s">
+        <v>629</v>
+      </c>
+      <c r="P112">
         <v>59.338196</v>
       </c>
-      <c r="O112">
+      <c r="Q112">
         <v>18.072177</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>617</v>
+        <v>28</v>
+      </c>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="N113" s="1">
+        <v>628</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="P113" s="1">
         <v>59.33055556</v>
       </c>
-      <c r="O113" s="1">
+      <c r="Q113" s="1">
         <v>18.05416667</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="B114" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="E114" t="s">
-        <v>625</v>
-      </c>
-      <c r="J114" t="s">
-        <v>626</v>
-      </c>
-      <c r="K114" t="s">
-        <v>627</v>
+        <v>636</v>
+      </c>
+      <c r="L114" t="s">
+        <v>637</v>
       </c>
       <c r="M114" t="s">
-        <v>628</v>
-      </c>
-      <c r="N114">
+        <v>638</v>
+      </c>
+      <c r="O114" t="s">
+        <v>639</v>
+      </c>
+      <c r="P114">
         <v>47.374533</v>
       </c>
-      <c r="O114">
+      <c r="Q114">
         <v>8.55097</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="B115" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J115" t="s">
-        <v>630</v>
-      </c>
-      <c r="K115" t="s">
-        <v>631</v>
+        <v>28</v>
+      </c>
+      <c r="L115" t="s">
+        <v>641</v>
       </c>
       <c r="M115" t="s">
-        <v>628</v>
-      </c>
-      <c r="N115">
+        <v>642</v>
+      </c>
+      <c r="O115" t="s">
+        <v>639</v>
+      </c>
+      <c r="P115">
         <v>46.024286</v>
       </c>
-      <c r="O115">
+      <c r="Q115">
         <v>8.9578863</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="K116" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="O116" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="M116" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="N116" s="1">
+      <c r="P116" s="1">
         <v>47.373265</v>
       </c>
-      <c r="O116" s="1">
+      <c r="Q116" s="1">
         <v>8.531073</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="B117" s="1" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="K117" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="O117" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="M117" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="N117" s="1">
+      <c r="P117" s="1">
         <v>47.23512221</v>
       </c>
-      <c r="O117" s="1">
+      <c r="Q117" s="1">
         <v>8.32483871</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="B118" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="E118" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="F118" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="G118" t="s">
-        <v>648</v>
-      </c>
-      <c r="J118" t="s">
-        <v>649</v>
-      </c>
-      <c r="K118" t="s">
-        <v>650</v>
+        <v>659</v>
+      </c>
+      <c r="L118" t="s">
+        <v>660</v>
       </c>
       <c r="M118" t="s">
-        <v>651</v>
-      </c>
-      <c r="N118">
+        <v>661</v>
+      </c>
+      <c r="O118" t="s">
+        <v>662</v>
+      </c>
+      <c r="P118">
         <v>38.318335</v>
       </c>
-      <c r="O118">
+      <c r="Q118">
         <v>26.640223</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>655</v>
+        <v>28</v>
+      </c>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="N119" s="1">
+        <v>666</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="P119" s="1">
         <v>41.105</v>
       </c>
-      <c r="O119" s="1">
+      <c r="Q119" s="1">
         <v>29.025</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="J120" t="s">
+        <v>672</v>
+      </c>
+      <c r="L120" t="s">
+        <v>673</v>
+      </c>
+      <c r="M120" t="s">
+        <v>674</v>
+      </c>
+      <c r="O120" t="s">
         <v>662</v>
       </c>
-      <c r="K120" t="s">
-        <v>663</v>
-      </c>
-      <c r="M120" t="s">
-        <v>651</v>
-      </c>
-      <c r="N120">
+      <c r="P120">
         <v>39.904716</v>
       </c>
-      <c r="O120">
+      <c r="Q120">
         <v>32.858597</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="B121" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="E121" t="s">
-        <v>667</v>
-      </c>
-      <c r="J121" t="s">
-        <v>668</v>
-      </c>
-      <c r="K121" t="s">
-        <v>669</v>
+        <v>678</v>
+      </c>
+      <c r="L121" t="s">
+        <v>679</v>
       </c>
       <c r="M121" t="s">
-        <v>670</v>
-      </c>
-      <c r="N121">
+        <v>680</v>
+      </c>
+      <c r="O121" t="s">
+        <v>681</v>
+      </c>
+      <c r="P121">
         <v>51.45518</v>
       </c>
-      <c r="O121">
+      <c r="Q121">
         <v>-2.584709</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="B122" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="C122" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D122" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="E122" t="s">
-        <v>674</v>
-      </c>
-      <c r="J122" t="s">
-        <v>675</v>
-      </c>
-      <c r="K122" t="s">
-        <v>676</v>
+        <v>685</v>
+      </c>
+      <c r="L122" t="s">
+        <v>686</v>
       </c>
       <c r="M122" t="s">
-        <v>670</v>
-      </c>
-      <c r="N122">
+        <v>687</v>
+      </c>
+      <c r="O122" t="s">
+        <v>681</v>
+      </c>
+      <c r="P122">
         <v>51.566531</v>
       </c>
-      <c r="O122">
+      <c r="Q122">
         <v>-1.785539</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="B123" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="K123" t="s">
-        <v>669</v>
+        <v>689</v>
+      </c>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="M123" t="s">
-        <v>670</v>
-      </c>
-      <c r="N123">
+        <v>680</v>
+      </c>
+      <c r="O123" t="s">
+        <v>681</v>
+      </c>
+      <c r="P123">
         <v>51.45518</v>
       </c>
-      <c r="O123">
+      <c r="Q123">
         <v>-2.584709</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="O124" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="F124" s="1"/>
-      <c r="J124" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="N124" s="1">
+      <c r="P124" s="1">
         <v>51.52399</v>
       </c>
-      <c r="O124" s="1">
+      <c r="Q124" s="1">
         <v>-0.0423039</v>
       </c>
     </row>
@@ -7138,7 +7305,7 @@
     <row r="1048" ht="15.75" hidden="1" customHeight="1"/>
     <row r="1049" ht="15.75" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$Y$1049">
+  <autoFilter ref="$A$1:$AA$1049">
     <filterColumn colId="2">
       <filters>
         <filter val="RDA Europe (Nodes)"/>
